--- a/Segimiento de riesgo/Seguimientos de riesgos_Semana_9.xlsx
+++ b/Segimiento de riesgo/Seguimientos de riesgos_Semana_9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saul\Documents\Control_De_Acceso_de_Microcontroladores\Segimiento de riesgo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesús\Documents\GitHub\Punto-de-Acceso\Segimiento de riesgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>25</v>
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="25">
-        <v>43605</v>
+        <v>43598</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>26</v>
